--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_PORTO SANTO.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_PORTO SANTO.xlsx
@@ -600,61 +600,61 @@
         <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S2" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="T2" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>978</v>
+        <v>999</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
